--- a/DOM_Banner/output/dept_banner/Aaron Scott_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Aaron Scott_2022.xlsx
@@ -565,22 +565,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Racial and Ethnic Health Disparities</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S2765040861</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Springer Science+Business Media</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2196-8837</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2166245930", "https://openalex.org/W2971551249", "https://openalex.org/W2148764093", "https://openalex.org/W1977978400", "https://openalex.org/W2133719633", "https://openalex.org/W3022194018", "https://openalex.org/W4213456994", "https://openalex.org/W4315754344", "https://openalex.org/W1990406484", "https://openalex.org/W4283172061")</t>
+          <t>c("https://openalex.org/W2036547507", "https://openalex.org/W2531115716", "https://openalex.org/W2048734312", "https://openalex.org/W1599251874", "https://openalex.org/W1994188047", "https://openalex.org/W2068239511", "https://openalex.org/W2611070079", "https://openalex.org/W2166454051", "https://openalex.org/W2914821937", "https://openalex.org/W1556574015")</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1826,11 +1826,11 @@
         <is>
           <t>list(au_id = c("https://openalex.org/A5003705188", "https://openalex.org/A5089657589", "https://openalex.org/A5030211608", "https://openalex.org/A5036429418", "https://openalex.org/A5013736647", "https://openalex.org/A5022244521", "https://openalex.org/A5047668731", "https://openalex.org/A5026645431", "https://openalex.org/A5058815005", "https://openalex.org/A5028790437"), au_display_name = c("Zofia Parteka-Tojek", "Jacqueline Jufen Zhu", "Byoungkoo Lee", "Karolina Jodkowska", "Ping Wang", "Jesse Aaron", 
 "Teng‐Leong Chew", "Krzysztof Banecki", "Dariusz Plewczyński", "Yijun Ruan"), au_orcid = c(NA, "https://orcid.org/0000-0001-6416-4563", "https://orcid.org/0000-0002-0067-9944", "https://orcid.org/0000-0002-6103-5915", "https://orcid.org/0000-0002-3565-0033", "https://orcid.org/0000-0002-7543-9590", "https://orcid.org/0000-0002-3139-7560", NA, "https://orcid.org/0000-0002-4237-3396", "https://orcid.org/0000-0001-5881-569X"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", 
-"middle", "middle", "middle", "last"), au_affiliation_raw = c("Centre of New Technologies, University of Warsaw, S. Banacha 2c, 02-097, Warsaw, Poland.; Faculty of Mathematics and Information Science, Warsaw University of Technology, Warsaw, Poland.", "Department of Genetics and Genome Sciences, University of Connecticut Health Center, Farmington, USA; The Jackson Laboratory for Genomic Medicine, Farmington, USA", "The Jackson Laboratory for Genomic Medicine, Farmington, USA", "Centre for Advanced Materials and Technologies, Warsaw University of Technology, Warsaw, Poland; Centre of New Technologies, University of Warsaw, Warsaw, Poland", 
-"The Jackson Laboratory for Genomic Medicine, Farmington, USA", "Advanced Imaging Center, Janelia Research Campus, Howard Hughes Medical Institute, Ashburn, USA", "Advanced Imaging Center, Janelia Research Campus, Howard Hughes Medical Institute, Ashburn, USA", "Faculty of Mathematics and Information Science, Warsaw University of Technology, Warsaw, Poland", "Centre of New Technologies, University of Warsaw, Warsaw, Poland", "Department of Genetics and Genome Sciences, University of Connecticut Health Center, Farmington, USA; The Jackson Laboratory for Genomic Medicine, Farmington, USA"
-), institution_id = c("https://openalex.org/I4654613", "https://openalex.org/I75929689", "https://openalex.org/I4210115256", "https://openalex.org/I108403487", "https://openalex.org/I4210115256", "https://openalex.org/I195573530", "https://openalex.org/I195573530", "https://openalex.org/I108403487", "https://openalex.org/I4654613", "https://openalex.org/I75929689"), institution_display_name = c("University of Warsaw", "University of Connecticut Health Center", "Jackson Laboratory", "Warsaw University of Technology", 
-"Jackson Laboratory", "Janelia Research Campus", "Janelia Research Campus", "Warsaw University of Technology", "University of Warsaw", "University of Connecticut Health Center"), institution_ror = c("https://ror.org/039bjqg32", "https://ror.org/02kzs4y22", "https://ror.org/021sy4w91", "https://ror.org/00y0xnp53", "https://ror.org/021sy4w91", "https://ror.org/013sk6x84", "https://ror.org/013sk6x84", "https://ror.org/00y0xnp53", "https://ror.org/039bjqg32", "https://ror.org/02kzs4y22"), institution_country_code = c("PL", 
-"US", "US", "PL", "US", "US", "US", "PL", "PL", "US"), institution_type = c("education", "healthcare", "nonprofit", "education", "nonprofit", "facility", "facility", "education", "education", "healthcare"), institution_lineage = c("https://openalex.org/I4654613", "https://openalex.org/I75929689", "https://openalex.org/I4210115256", "https://openalex.org/I108403487", "https://openalex.org/I4210115256", "https://openalex.org/I1344073410, https://openalex.org/I195573530", "https://openalex.org/I1344073410, https://openalex.org/I195573530", 
+"middle", "middle", "middle", "last"), au_affiliation_raw = c("Centre of New Technologies, University of Warsaw, S. Banacha 2c, 02-097, Warsaw, Poland", "The Jackson Laboratory for Genomic Medicine, 10 Discovery Drive, Farmington, CT, 06030, USA", "The Jackson Laboratory for Genomic Medicine, 10 Discovery Drive, Farmington, CT, 06030, USA", "Centre of New Technologies, University of Warsaw, S. Banacha 2c, 02-097, Warsaw, Poland", "The Jackson Laboratory for Genomic Medicine, 10 Discovery Drive, Farmington, CT, 06030, USA", 
+"Advanced Imaging Center, Janelia Research Campus, Howard Hughes Medical Institute, 19700 Helix Drive, Ashburn, VA, 20147, USA", "Advanced Imaging Center, Janelia Research Campus, Howard Hughes Medical Institute, 19700 Helix Drive, Ashburn, VA, 20147, USA", "Faculty of Mathematics and Information Science, Warsaw University of Technology, Warsaw, Poland", "Centre of New Technologies, University of Warsaw, S. Banacha 2c, 02-097, Warsaw, Poland", "Department of Genetics and Genome Sciences, University of Connecticut Health Center, 400 Farmington Avenue, Farmington, CT, 06030, USA"
+), institution_id = c("https://openalex.org/I4654613", "https://openalex.org/I4210115256", "https://openalex.org/I4210115256", "https://openalex.org/I4654613", "https://openalex.org/I4210115256", "https://openalex.org/I195573530", "https://openalex.org/I195573530", "https://openalex.org/I108403487", "https://openalex.org/I4654613", "https://openalex.org/I75929689"), institution_display_name = c("University of Warsaw", "Jackson Laboratory", "Jackson Laboratory", "University of Warsaw", "Jackson Laboratory", 
+"Janelia Research Campus", "Janelia Research Campus", "Warsaw University of Technology", "University of Warsaw", "University of Connecticut Health Center"), institution_ror = c("https://ror.org/039bjqg32", "https://ror.org/021sy4w91", "https://ror.org/021sy4w91", "https://ror.org/039bjqg32", "https://ror.org/021sy4w91", "https://ror.org/013sk6x84", "https://ror.org/013sk6x84", "https://ror.org/00y0xnp53", "https://ror.org/039bjqg32", "https://ror.org/02kzs4y22"), institution_country_code = c("PL", 
+"US", "US", "PL", "US", "US", "US", "PL", "PL", "US"), institution_type = c("education", "nonprofit", "nonprofit", "education", "nonprofit", "facility", "facility", "education", "education", "healthcare"), institution_lineage = c("https://openalex.org/I4654613", "https://openalex.org/I4210115256", "https://openalex.org/I4210115256", "https://openalex.org/I4654613", "https://openalex.org/I4210115256", "https://openalex.org/I1344073410, https://openalex.org/I195573530", "https://openalex.org/I1344073410, https://openalex.org/I195573530", 
 "https://openalex.org/I108403487", "https://openalex.org/I4654613", "https://openalex.org/I75929689"))</t>
         </is>
       </c>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W4220758050", "https://openalex.org/W2898514070", "https://openalex.org/W4225831698", "https://openalex.org/W1607718650", "https://openalex.org/W4290975478", "https://openalex.org/W3083199549", "https://openalex.org/W4362507076", "https://openalex.org/W2010297690", "https://openalex.org/W3172139004", "https://openalex.org/W4292590360")</t>
+          <t>c("https://openalex.org/W4220758050", "https://openalex.org/W4225831698", "https://openalex.org/W1607718650", "https://openalex.org/W4290975478", "https://openalex.org/W3083199549", "https://openalex.org/W4362507076", "https://openalex.org/W2010297690", "https://openalex.org/W4292590360", "https://openalex.org/W4384070931", "https://openalex.org/W2341637133")</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Aaron Scott_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Aaron Scott_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>College of Medicine, University of Arkansas for Medical Sciences Northwest, 1125 N. College Ave, Fayetteville, AR, 72703, USA; College of Medicine, University of Arkansas for Medical Sciences Northwest, 1125 N. College Ave, Fayetteville, AR, 72703, USA; Fay W. Boozman College of Public Health, University of Arkansas for Medical Sciences, 4301 W. Markham St, Little Rock, AR, 72205, USA; Fay W. Boozman College of Public Health, University of Arkansas for Medical Sciences Northwest, 1125 N. College Ave, Fayetteville, AR, 72703, USA; Office of Community Health and Research, University of Arkansas for Medical Sciences Northwest, 1125 N. College Ave, Fayetteville, AR, 72703, USA; Fay W. Boozman College of Public Health, University of Arkansas for Medical Sciences, 4301 W. Markham St, Little Rock, AR, 72205, USA; Fay W. Boozman College of Public Health, University of Arkansas for Medical Sciences, 4301 W. Markham St, Little Rock, AR, 72205, USA; Office of Community Health and Research, University of Arkansas for Medical Sciences Northwest, 1125 N. College Ave, Fayetteville, AR, 72703, USA; Fay W. Boozman College of Public Health, University of Arkansas for Medical Sciences, 4301 W. Markham St, Little Rock, AR, 72205, USA; College of Medicine, University of Arkansas for Medical Sciences Northwest, 1125 N. College Ave, Fayetteville, AR, 72703, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4223547831</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>COVID-19 Vaccine Hesitancy and Experiences of Discrimination Among Black Adults</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-04-07</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Journal of Racial and Ethnic Health Disparities</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s40615-022-01290-x</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35391714</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s40615-022-01290-x</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Skaggs Pharmaceutical Sciences Center, Department of Pharmacology &amp; Toxicology, R. Ken Coit College of Pharmacy, The University of Arizona, Tucson, AZ 85721, United States; Skaggs Pharmaceutical Sciences Center, Department of Pharmacology &amp; Toxicology, R. Ken Coit College of Pharmacy, The University of Arizona, Tucson, AZ 85721, United States; Skaggs Pharmaceutical Sciences Center, Department of Pharmacology &amp; Toxicology, R. Ken Coit College of Pharmacy, The University of Arizona, Tucson, AZ 85721, United States; Skaggs Pharmaceutical Sciences Center, Department of Pharmacology &amp; Toxicology, R. Ken Coit College of Pharmacy, The University of Arizona, Tucson, AZ 85721, United States; NCI-designated University of Arizona Comprehensive Cancer Center, Tucson, AZ 85721, United States; Skaggs Pharmaceutical Sciences Center, Department of Pharmacology &amp; Toxicology, R. Ken Coit College of Pharmacy, The University of Arizona, Tucson, AZ 85721, United States</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4289992982</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Camptothesome elicits immunogenic cell death to boost colorectal cancer immune checkpoint blockade</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of Controlled Release</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jconrel.2022.07.042</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>acceptedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35926754</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jconrel.2022.07.042</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>MRC LMCB, University College London, London, UK; School of Biosciences, University of Kent, Canterbury, UK; Department of Oncology and Metabolism, University of Sheffield, Sheffield, UK; School of Life Sciences, University of Lincoln, Lincoln, UK; Department of Oncology and Metabolism, University of Sheffield, Sheffield, UK; Department of Oncology and Metabolism, University of Sheffield, Sheffield, UK; Department of Oncology and Metabolism, University of Sheffield, Sheffield, UK; School of Biosciences, University of Kent, Canterbury, UK; Central Laser Facility, Research Complex at Harwell, Science and Technology Facilities Council, Rutherford Appleton Laboratory, Harwell, Didcot, Oxford, UK; Advanced Imaging Center, HHMI Janelia Research Campus, Ashburn, USA; Science Division, Biology Program, New York University Abu Dhabi (NYUAD), Abu Dhabi, United Arab Emirates; Advanced Imaging Center, HHMI Janelia Research Campus, Ashburn, USA; Institute of Biophysics, Ulm University, Ulm, Germany; Institute of Biophysics, Ulm University, Ulm, Germany; Department of Molecular Bioscience, The Wenner Gren Institute, Stockholm University, Stockholm, Sweden; Science Division, Biology Program, New York University Abu Dhabi (NYUAD), Abu Dhabi, United Arab Emirates; Advanced Imaging Center, HHMI Janelia Research Campus, Ashburn, USA; Central Laser Facility, Research Complex at Harwell, Science and Technology Facilities Council, Rutherford Appleton Laboratory, Harwell, Didcot, Oxford, UK; Department of Oncology and Metabolism, University of Sheffield, Sheffield, UK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220987267</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Myosin VI regulates the spatial organisation of mammalian transcription initiation</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-03-15</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Nature Communications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Nature Portfolio</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41467-022-28962-w</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35292632</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41467-022-28962-w</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, AZ.; Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, AZ.; Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, AZ.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4285491569</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Precision Medicine in Biliary Tract Cancer</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-08-20</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.21.02576</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35839428</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.21.02576</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Advanced Imaging Center, Howard Hughes Medical Institute Janelia Research Campus, Ashburn, VA 20147, USA.; Advanced Imaging Center, Howard Hughes Medical Institute Janelia Research Campus, Ashburn, VA 20147, USA.; Advanced Imaging Center, Howard Hughes Medical Institute Janelia Research Campus, Ashburn, VA 20147, USA.; Light Microscopy Facility, Howard Hughes Medical Institute Janelia Research Campus, Ashburn, VA 20147,USA.; Advanced Imaging Center, Howard Hughes Medical Institute Janelia Research Campus, Ashburn, VA 20147, USA.; Advanced Imaging Center, Howard Hughes Medical Institute Janelia Research Campus, Ashburn, VA 20147, USA.; Advanced Imaging Center, Howard Hughes Medical Institute Janelia Research Campus, Ashburn, VA 20147, USA.; Advanced Imaging Center, Howard Hughes Medical Institute Janelia Research Campus, Ashburn, VA 20147, USA.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4221112951</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>When light meets biology – how the specimen affects quantitative microscopy</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-03-15</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Journal of Cell Science</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>The Company of Biologists</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1242/jcs.259656</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35319069</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1242/jcs.259656</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>1Department of Oncology and Metabolism, University of Sheffield, Sheffield S10 2RX, U.K.; 1Department of Oncology and Metabolism, University of Sheffield, Sheffield S10 2RX, U.K.; 2School of Biosciences, University of Kent, Canterbury CT2 7NJ, U.K.; 1Department of Oncology and Metabolism, University of Sheffield, Sheffield S10 2RX, U.K.; 3Central Laser Facility, Research Complex at Harwell, Science and Technology Facilities Council, Rutherford Appleton Laboratory, Harwell, Didcot, Oxford OX11 0QX, U.K.; 3Central Laser Facility, Research Complex at Harwell, Science and Technology Facilities Council, Rutherford Appleton Laboratory, Harwell, Didcot, Oxford OX11 0QX, U.K.; 4Advanced Imaging Center, HHMI Janelia Research Campus, Ashburn, U.S.A.; 4Advanced Imaging Center, HHMI Janelia Research Campus, Ashburn, U.S.A.; 4Advanced Imaging Center, HHMI Janelia Research Campus, Ashburn, U.S.A.; 1Department of Oncology and Metabolism, University of Sheffield, Sheffield S10 2RX, U.K.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283172061</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Binding partners regulate unfolding of myosin VI to activate the molecular motor</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Biochemical Journal</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Portland Press</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1042/bcj20220025</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35722941</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1042/bcj20220025</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>College of Medicine, University of Arkansas for Medical Sciences Northwest, Fayetteville, Arkansas, USA.; Office of Community Health and Research, University of Arkansas for Medical Sciences Northwest, Fayetteville, Arkansas, USA.; Office of Community Health and Research, University of Arkansas for Medical Sciences Northwest, Fayetteville, Arkansas, USA.; College of Medicine, University of Arkansas for Medical Sciences Northwest, Fayetteville, Arkansas, USA.; College of Medicine, University of Arkansas for Medical Sciences Northwest, Fayetteville, Arkansas, USA.; College of Nursing, University of Arkansas for Medical Sciences Northwest, Fayetteville, Arkansas, USA.; College of Medicine, University of Arkansas for Medical Sciences Northwest, Fayetteville, Arkansas, USA.; Integrated Medicine Service Line, University of Arkansas for Medical Sciences, Little Rock, Arkansas, USA.; College of Medicine, University of Arkansas for Medical Sciences Northwest, Fayetteville, Arkansas, USA.; College of Medicine, University of Arkansas for Medical Sciences, Little Rock, Arkansas, USA.; College of Medicine, University of Arkansas for Medical Sciences Northwest, Fayetteville, Arkansas, USA.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293089918</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Hesitant adopters: An examination of hesitancy among adults in Arkansas who have taken the &lt;scp&gt;COVID&lt;/scp&gt;‐19 vaccine</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-08-25</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Clinical and Translational Science</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/cts.13367</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36004689</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/cts.13367</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Centre of New Technologies, University of Warsaw, S. Banacha 2c, 02-097, Warsaw, Poland; The Jackson Laboratory for Genomic Medicine, 10 Discovery Drive, Farmington, CT, 06030, USA; The Jackson Laboratory for Genomic Medicine, 10 Discovery Drive, Farmington, CT, 06030, USA; Centre of New Technologies, University of Warsaw, S. Banacha 2c, 02-097, Warsaw, Poland; The Jackson Laboratory for Genomic Medicine, 10 Discovery Drive, Farmington, CT, 06030, USA; Advanced Imaging Center, Janelia Research Campus, Howard Hughes Medical Institute, 19700 Helix Drive, Ashburn, VA, 20147, USA; Advanced Imaging Center, Janelia Research Campus, Howard Hughes Medical Institute, 19700 Helix Drive, Ashburn, VA, 20147, USA; Faculty of Mathematics and Information Science, Warsaw University of Technology, Warsaw, Poland; Centre of New Technologies, University of Warsaw, S. Banacha 2c, 02-097, Warsaw, Poland; Department of Genetics and Genome Sciences, University of Connecticut Health Center, 400 Farmington Avenue, Farmington, CT, 06030, USA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281255130</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Super-resolution visualization of chromatin loop folding in human lymphoblastoid cells using interferometric photoactivated localization microscopy</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-05-20</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Scientific Reports</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Nature Portfolio</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41598-022-12568-9</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35595799</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41598-022-12568-9</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>College of Medicine, University of Arkansas for Medical Sciences Northwest, 1125 N. College Ave., Fayetteville, AR 72703, USA; Fay W. Boozman College of Public Health, University of Arkansas for Medical Sciences Northwest, 1125 N. College Ave., Fayetteville, AR 72703, USA; Office of Community Health and Research, University of Arkansas for Medical Sciences Northwest, 1125 N. College Ave., Fayetteville, AR 72703, USA; Office of Community Health and Research, University of Arkansas for Medical Sciences Northwest, 1125 N. College Ave., Fayetteville, AR 72703, USA; College of Medicine, University of Arkansas for Medical Sciences Northwest, 1125 N. College Ave., Fayetteville, AR 72703, USA; College of Medicine, University of Arkansas for Medical Sciences Northwest, 1125 N. College Ave., Fayetteville, AR 72703, USA; College of Medicine, University of Arkansas for Medical Sciences Northwest, 1125 N. College Ave., Fayetteville, AR 72703, USA; College of Medicine, University of Arkansas for Medical Sciences, 4301 W. Markham St., Little Rock, AR 72205, USA; Office of Community Health and Research, University of Arkansas for Medical Sciences Northwest, 1125 N. College Ave., Fayetteville, AR 72703, USA; College of Medicine, University of Arkansas for Medical Sciences Northwest, 1125 N. College Ave., Fayetteville, AR 72703, USA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281776349</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Associations between 5-year influenza vaccination and sociodemographic factors and healthcare access among Arkansans</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Vaccine</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.vaccine.2022.05.031</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>acceptedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35606233</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.vaccine.2022.05.031</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>University of North Carolina at Chapel Hill; Department of Pharmacology, School of Medicine, University of North Carolina at Chapel Hill, Chapel Hill, USA; Department of Pharmacology, School of Medicine, University of North Carolina at Chapel Hill, Chapel Hill, USA; Division of Gene Regulation, Cancer Center, Fujita Health University, Toyoake, Japan; Department of Pharmacology, School of Medicine, University of North Carolina at Chapel Hill, Chapel Hill, USA; Department of Pharmacology, School of Medicine, University of North Carolina at Chapel Hill, Chapel Hill, USA; Department of Physics and Astronomy, University of North Carolina at Chapel Hill, Chapel Hill, USA; Advanced Imaging Center, Howard Hughes Medical Institute Janelia Research Campus, Ashburn, USA; Advanced Imaging Center, Howard Hughes Medical Institute Janelia Research Campus, Ashburn, USA; Department of Chemistry, University of North Carolina at Chapel Hill, Chapel Hill, USA; Advanced Imaging Center, Howard Hughes Medical Institute Janelia Research Campus, Ashburn, USA; Curriculum in Bioinformatics and Computational Biology, University of North Carolina at Chapel Hill, Chapel Hill, USA; Computational Medicine Program, University of North Carolina at Chapel Hill, Chapel Hill, USA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4288068574</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Actin nano-architecture of phagocytic podosomes</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-07-27</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Nature Communications</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Nature Portfolio</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41467-022-32038-0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35896550</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41467-022-32038-0</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Banner-University Medical Center Tucson, Tucson, Arizona.; Division of Hematology and Oncology, Department of Medicine.; University of Arizona Cancer Center.; Department of Immunobiology, and.; 5Department of Pathology, University of Arizona College of Medicine—Tucson, Tucson, Arizona;; 6Now with Roche Tissue Diagnostics, Tucson, Arizona;; Banner-University Medical Center Tucson, Tucson, Arizona.; Department of Surgery, University of Arizona College of Medicine-Tucson, Tucson, Arizona.; Department of Biology, Northeastern University, Boston, Massachusetts; and.; Department of Pathology and Laboratory Medicine, University of North Carolina, Chapel Hill, North Carolina.; Banner-University Medical Center Tucson, Tucson, Arizona.; Division of Hematology and Oncology, Department of Medicine.; University of Arizona Cancer Center.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220734165</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Four-Year Disease-Free Remission in a Patient With POLE Mutation–Associated Colorectal Cancer Treated Using Anti–PD-1 Therapy</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Journal of The National Comprehensive Cancer Network</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>National Comprehensive Cancer</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.6004/jnccn.2021.7115</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35276675</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.6004/jnccn.2021.7115</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,75 +1409,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>College of Medicine, University of Arkansas for Medical Sciences Northwest, Springdale, AR, USA; College of Medicine, University of Arkansas for Medical Sciences Northwest, Springdale, AR, USA; College of Medicine, University of Arkansas for Medical Sciences Northwest, Springdale, AR, USA; College of Medicine, University of Arkansas for Medical Sciences Northwest, Springdale, AR, USA; Fay W. Boozman College of Public Health, University of Arkansas for Medical Sciences Northwest, Springdale, AR, USA; Office of Community Health and Research, University of Arkansas for Medical Sciences Northwest, Springdale, AR, USA; College of Medicine, University of Arkansas for Medical Sciences, Little Rock, AR, USA; College of Medicine, University of Arkansas for Medical Sciences Northwest, Springdale, AR, USA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4289767049</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>COVID-19 Death Exposure among Adults in the United States</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-08-04</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>OMEGA - Journal of Death and Dying</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>SAGE Publishing</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177/00302228221116523</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35924749</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177/00302228221116523</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,75 +1496,80 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>1Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, Arizona.; 2Sidney Kimmel Cancer Center, Thomas Jefferson University, Philadelphia, Pennsylvania.; 3Fox Chase Cancer Center, Philadelphia, Pennsylvania.; 4Jefferson Health/Abington Hospital, Sidney Kimmel Cancer Center, Philadelphia, Pennsylvania.; 5Swedish Cancer Institute, Seattle, Washington.; 6Rutgers Cancer Institute of New Jersey, New Brunswick, New Jersey.; 5Swedish Cancer Institute, Seattle, Washington.; 7City of Hope Comprehensive Cancer Center, Duarte, California.; 1Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, Arizona.; 8Colorado School of Public Health, Aurora, Colorado.; 9University of Colorado Cancer Center, Aurora, Colorado.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4295865084</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>A Phase II Study Investigating Cabozantinib in Patients with Refractory Metastatic Colorectal Cancer (AGICC 17CRC01)</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2022-10-14</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Cancer research communications</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>American Association for Cancer Research</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/2767-9764.crc-22-0169</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36969746</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/2767-9764.crc-22-0169</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1513,75 +1583,80 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Advanced Imaging Center, Janelia Research Campus, Howard Hughes Medical Institute, Ashburn, VA 20147.; Advanced Imaging Center, Janelia Research Campus, Howard Hughes Medical Institute, Ashburn, VA 20147.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4280502559</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Combining multiple fluorescence imaging techniques in biology: when one microscope is not enough</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-05-15</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Molecular Biology of the Cell</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>American Society for Cell Biology</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1091/mbc.e21-10-0506</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35549314</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1091/mbc.e21-10-0506</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1595,75 +1670,80 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Department of Biochemistry and BioFrontiers Institute, University of Colorado Boulder, Boulder, CO, 80303, USA; Advanced Imaging Center, Janelia Research Campus, Howard Hughes Medical Institute, Ashburn, VA, 20147, USA; Department of Biochemistry and BioFrontiers Institute, University of Colorado Boulder, Boulder, CO, 80303, USA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307130881</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Single molecule microscopy to profile the effect of zinc status on transcription factor dynamics</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2022-10-22</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Scientific Reports</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Nature Portfolio</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41598-022-22634-x</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36273101</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41598-022-22634-x</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1677,75 +1757,80 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>University of Arkansas for Medical Sciences Northwest; Fay W. Boozman College of Public Health, University of Arkansas for Medical Sciences Northwest, Fayetteville, USA; Office of Community Health and Research, University of Arkansas for Medical Sciences Northwest, Fayetteville, USA; Office of Community Health and Research, University of Arkansas for Medical Sciences Northwest, Fayetteville, USA; College of Medicine, University of Arkansas for Medical Sciences Northwest, Fayetteville, USA; College of Medicine, University of Arkansas for Medical Sciences Northwest, Fayetteville, USA; College of Medicine, University of Arkansas for Medical Sciences Northwest, Fayetteville, USA; College of Medicine, University of Arkansas for Medical Sciences Northwest, Fayetteville, USA; Office of Community Health and Research, University of Arkansas for Medical Sciences Northwest, Fayetteville, USA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4308115211</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Associations Between General Vaccine Hesitancy and Healthcare Access Among Arkansans</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2022-11-02</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Journal of General Internal Medicine</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s11606-022-07859-w</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36323819</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s11606-022-07859-w</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1754,80 +1839,85 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Navaneetha Krishnan Bharathan, W. Giang, Jesse Aaron, Satya Khuon, Teng‐Leong Chew, Stephan Preibisch, Eric T. Trautman, Larissa Heinrich, John A. Bogovic, Davis Bennett, David G. Ackerman, Woo-Hyun Park, Alyson Petruncio, Aubrey V. Weigel, Stephan Saalfeld, A. Wayne Vogl, Sara N. Stahley, Andrew P. Kowalczyk</t>
+          <t>Navaneetha Krishnan Bharathan, W. Giang, Jesse Aaron, Satya Khuon, Teng‐Leong Chew, Stephan Preibisch, Eric T. Trautman, Larissa Heinrich, John A. Bogovic, Davis Bennett, David Ackerman, Woo-Hyun Park, Alyson Petruncio, Aubrey V. Weigel, Stephan Saalfeld, A. Wayne Vogl, Sara N. Stahley, Andrew P. Kowalczyk</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Departments of Dermatology and Cellular and Molecular Physiology, Pennsylvania State College of Medicine, Hershey, PA 7033, USA; Departments of Dermatology and Cellular and Molecular Physiology, Pennsylvania State College of Medicine, Hershey, PA 7033, USA; Janelia Research Campus, Howard Hughes Medical Institute, Ashburn, VA 0146, USA; Janelia Research Campus, Howard Hughes Medical Institute, Ashburn, VA 0146, USA; Janelia Research Campus, Howard Hughes Medical Institute, Ashburn, VA 0146, USA; Janelia Research Campus, Howard Hughes Medical Institute, Ashburn, VA 0146, USA; Janelia Research Campus, Howard Hughes Medical Institute, Ashburn, VA 0146, USA; Janelia Research Campus, Howard Hughes Medical Institute, Ashburn, VA 0146, USA; Janelia Research Campus, Howard Hughes Medical Institute, Ashburn, VA 0146, USA; Janelia Research Campus, Howard Hughes Medical Institute, Ashburn, VA 0146, USA; Janelia Research Campus, Howard Hughes Medical Institute, Ashburn, VA 0146, USA; Janelia Research Campus, Howard Hughes Medical Institute, Ashburn, VA 0146, USA; Janelia Research Campus, Howard Hughes Medical Institute, Ashburn, VA 0146, USA; Janelia Research Campus, Howard Hughes Medical Institute, Ashburn, VA 0146, USA; Janelia Research Campus, Howard Hughes Medical Institute, Ashburn, VA 0146, USA; Department of Cellular and Physiological Sciences, University of British Columbia, Vancouver, Canada; Departments of Dermatology and Cellular and Molecular Physiology, Pennsylvania State College of Medicine, Hershey, PA 7033, USA; Departments of Dermatology and Cellular and Molecular Physiology, Pennsylvania State College of Medicine, Hershey, PA 7033, USA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4284968395</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Architecture and dynamics of a novel desmosome-endoplasmic reticulum organelle</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2022-07-08</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.07.07.499185</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.07.07.499185</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1841,75 +1931,80 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>NRG Oncology, and University of Texas-MD Anderson Cancer Center, Houston, TX;; NRG Oncology, and The University of Pittsburgh, Pittsburgh, PA;; NRG Oncology, and University of Texas-MD Anderson Cancer Center, Houston, TX;; NRG Oncology, and University of Pittsburgh Cancer Institute, Pittsburgh, PA;; NRG Oncology, and University of Pittsburgh School of Medicine, UPMC Hillman Cancer Center, Pittsburgh, PA;; NRG Oncology, and Baylor College of Medicine, Houston, TX;; Rutgers Cancer Institute of New Jersey, and the Alliance, New Brunswick, NJ;; University of Wisconsin Carbone Cancer Center, and ECOG-ACRIN, Madison, WI;; University of Arizona Cancer Center, and SWOG, Tucson, AZ;; British Columbia Cancer Vancouver, and CCTG Co-Chair, Vancouver, BC, Canada;; NRG Oncology and Massachusetts General Hospital, Harvard Medical School, Boston, MA;; NRG Oncology, and The University of Pittsburgh, Pittsburgh, PA;; NRG Oncology, and The University of Florida Health Cancer Center, Gainesville, FL;</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4226236415</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Phase II/III study of circulating tumor DNA as a predictive biomarker in adjuvant chemotherapy in patients with stage II colon cancer: NRG-GI005 (COBRA).</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2022-02-01</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.4_suppl.tps233</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.4_suppl.tps233</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1923,75 +2018,80 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Caris Life Sciences, Phoenix, AZ;; CARIS Life Sciences, Irving, TX;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; USC Keck School of Medicine, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; University of Cincinnati, Cincinnati, OH;; Department of Medicine, West Virginia University, Morgantown, WV;; Fox Chase Cancer Center, Philadelphia, PA;; The University of Arizona, Tucson, AZ;; Mitchell Cancer Institute, Mobile, AR;; Levine Cancer Institute, Charlotte, NC;; Masonic Cancer Center/ University of Minnesota School of Medicine, Minneapolis, MN;; Ruesch Center for the Cure of Gastrointestinal Cancers, Lombardi Comprehensive Cancer Center, Georgetown University Medical Center, Washington, DC;; Georgetown University, Washington, DC;; Caris Life Sciences, Phoenix, AZ;; Division of Medical Oncology, Keck School of Medicine, University of Southern California, Los Angeles, CA;</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4286295299</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Landscape of endocytosis pathway in colorectal cancer (CRC).</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.16_suppl.3148</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.16_suppl.3148</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2005,75 +2105,80 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Department of Biochemistry and BioFrontiers Institute, University of Colorado Boulder, Boulder, CO 80303; Advanced Imaging Center, Janelia Research Campus, Howard Hughes Medical Institute, Ashburn, VA 0147; Department of Biochemistry and BioFrontiers Institute, University of Colorado Boulder, Boulder, CO 80303</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293246800</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Single molecule microscopy to profile the effect of zinc status of transcription factor dynamics</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2022-05-11</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.05.10.491421</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.05.10.491421</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2087,75 +2192,80 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>Centre of New Technologies, University of Warsaw, S. Banacha 2c, 02-097, Warsaw, Poland.; Faculty of Mathematics and Information Science, Warsaw University of Technology, Warsaw, Poland.; Department of Genetics and Genome Sciences, University of Connecticut Health Center, Farmington, USA; The Jackson Laboratory for Genomic Medicine, Farmington, USA; The Jackson Laboratory for Genomic Medicine, Farmington, USA; Centre for Advanced Materials and Technologies, Warsaw University of Technology, Warsaw, Poland; Centre of New Technologies, University of Warsaw, Warsaw, Poland; The Jackson Laboratory for Genomic Medicine, Farmington, USA; Advanced Imaging Center, Janelia Research Campus, Howard Hughes Medical Institute, Ashburn, USA; Advanced Imaging Center, Janelia Research Campus, Howard Hughes Medical Institute, Ashburn, USA; Faculty of Mathematics and Information Science, Warsaw University of Technology, Warsaw, Poland; Centre of New Technologies, University of Warsaw, Warsaw, Poland; Faculty of Mathematics and Information Science, Warsaw University of Technology, Warsaw, Poland; The Jackson Laboratory for Genomic Medicine, Farmington, USA; Department of Genetics and Genome Sciences, University of Connecticut Health Center, Farmington, USA; The Jackson Laboratory for Genomic Medicine, Farmington, USA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312114329</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Publisher Correction: Super‑resolution visualization of chromatin loop folding in human lymphoblastoid cells using interferometric photoactivated localization microscopy</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2022-12-20</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Scientific Reports</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Nature Portfolio</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41598-022-26502-6</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36539456</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41598-022-26502-6</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>article</t>
         </is>
